--- a/public/img/export (9).xlsx
+++ b/public/img/export (9).xlsx
@@ -7,7 +7,9 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Informations du joueur" sheetId="1" r:id="rId4"/>
+    <sheet name="Informations des joueurs" sheetId="1" r:id="rId4"/>
+    <sheet name="Considine Merle" sheetId="2" r:id="rId5"/>
+    <sheet name="Renner Jennifer" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="196">
   <si>
     <t>Nom</t>
   </si>
@@ -35,6 +37,438 @@
     <t>Taille</t>
   </si>
   <si>
+    <t>Auer</t>
+  </si>
+  <si>
+    <t>Alize</t>
+  </si>
+  <si>
+    <t>27/09/2013</t>
+  </si>
+  <si>
+    <t>U11</t>
+  </si>
+  <si>
+    <t>Bergstrom</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>17/05/2014</t>
+  </si>
+  <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>Bernier</t>
+  </si>
+  <si>
+    <t>Gisselle</t>
+  </si>
+  <si>
+    <t>18/12/2012</t>
+  </si>
+  <si>
+    <t>U12</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Nedra</t>
+  </si>
+  <si>
+    <t>23/11/2012</t>
+  </si>
+  <si>
+    <t>Boyle</t>
+  </si>
+  <si>
+    <t>Manuela</t>
+  </si>
+  <si>
+    <t>28/02/2013</t>
+  </si>
+  <si>
+    <t>Braun</t>
+  </si>
+  <si>
+    <t>Ella</t>
+  </si>
+  <si>
+    <t>28/12/2013</t>
+  </si>
+  <si>
+    <t>Carroll</t>
+  </si>
+  <si>
+    <t>Keshawn</t>
+  </si>
+  <si>
+    <t>06/07/2013</t>
+  </si>
+  <si>
+    <t>Cole</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Brennon</t>
+  </si>
+  <si>
+    <t>12/09/2012</t>
+  </si>
+  <si>
+    <t>Considine</t>
+  </si>
+  <si>
+    <t>Merle</t>
+  </si>
+  <si>
+    <t>13/06/2013</t>
+  </si>
+  <si>
+    <t>Corkery</t>
+  </si>
+  <si>
+    <t>Delia</t>
+  </si>
+  <si>
+    <t>07/08/2012</t>
+  </si>
+  <si>
+    <t>Dibbert</t>
+  </si>
+  <si>
+    <t>Afton</t>
+  </si>
+  <si>
+    <t>10/01/2014</t>
+  </si>
+  <si>
+    <t>Dooley</t>
+  </si>
+  <si>
+    <t>Madilyn</t>
+  </si>
+  <si>
+    <t>13/07/2014</t>
+  </si>
+  <si>
+    <t>Effertz</t>
+  </si>
+  <si>
+    <t>Jayme</t>
+  </si>
+  <si>
+    <t>29/08/2012</t>
+  </si>
+  <si>
+    <t>Veda</t>
+  </si>
+  <si>
+    <t>27/01/2014</t>
+  </si>
+  <si>
+    <t>Erdman</t>
+  </si>
+  <si>
+    <t>Lillie</t>
+  </si>
+  <si>
+    <t>08/04/2012</t>
+  </si>
+  <si>
+    <t>Frami</t>
+  </si>
+  <si>
+    <t>Mollie</t>
+  </si>
+  <si>
+    <t>07/07/2013</t>
+  </si>
+  <si>
+    <t>Friesen</t>
+  </si>
+  <si>
+    <t>Ryleigh</t>
+  </si>
+  <si>
+    <t>05/06/2014</t>
+  </si>
+  <si>
+    <t>Fritsch</t>
+  </si>
+  <si>
+    <t>Eudora</t>
+  </si>
+  <si>
+    <t>30/07/2012</t>
+  </si>
+  <si>
+    <t>Grant</t>
+  </si>
+  <si>
+    <t>Vernie</t>
+  </si>
+  <si>
+    <t>08/03/2013</t>
+  </si>
+  <si>
+    <t>Gutkowski</t>
+  </si>
+  <si>
+    <t>Jordane</t>
+  </si>
+  <si>
+    <t>25/07/2014</t>
+  </si>
+  <si>
+    <t>Haag</t>
+  </si>
+  <si>
+    <t>Cora</t>
+  </si>
+  <si>
+    <t>06/10/2012</t>
+  </si>
+  <si>
+    <t>Hamill</t>
+  </si>
+  <si>
+    <t>Jalon</t>
+  </si>
+  <si>
+    <t>26/03/2012</t>
+  </si>
+  <si>
+    <t>Mertie</t>
+  </si>
+  <si>
+    <t>17/02/2014</t>
+  </si>
+  <si>
+    <t>Hauck</t>
+  </si>
+  <si>
+    <t>Layla</t>
+  </si>
+  <si>
+    <t>11/04/2013</t>
+  </si>
+  <si>
+    <t>Heathcote</t>
+  </si>
+  <si>
+    <t>Webster</t>
+  </si>
+  <si>
+    <t>05/10/2014</t>
+  </si>
+  <si>
+    <t>Hills</t>
+  </si>
+  <si>
+    <t>Winifred</t>
+  </si>
+  <si>
+    <t>01/11/2014</t>
+  </si>
+  <si>
+    <t>Johns</t>
+  </si>
+  <si>
+    <t>Daniela</t>
+  </si>
+  <si>
+    <t>10/05/2013</t>
+  </si>
+  <si>
+    <t>Mayer</t>
+  </si>
+  <si>
+    <t>Lavina</t>
+  </si>
+  <si>
+    <t>31/05/2013</t>
+  </si>
+  <si>
+    <t>McClure</t>
+  </si>
+  <si>
+    <t>Clare</t>
+  </si>
+  <si>
+    <t>01/02/2013</t>
+  </si>
+  <si>
+    <t>McCullough</t>
+  </si>
+  <si>
+    <t>Judah</t>
+  </si>
+  <si>
+    <t>24/12/2013</t>
+  </si>
+  <si>
+    <t>Mohr</t>
+  </si>
+  <si>
+    <t>Velva</t>
+  </si>
+  <si>
+    <t>07/07/2012</t>
+  </si>
+  <si>
+    <t>Morar</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>20/01/2013</t>
+  </si>
+  <si>
+    <t>Mueller</t>
+  </si>
+  <si>
+    <t>Laila</t>
+  </si>
+  <si>
+    <t>16/02/2014</t>
+  </si>
+  <si>
+    <t>Nienow</t>
+  </si>
+  <si>
+    <t>Dax</t>
+  </si>
+  <si>
+    <t>30/10/2013</t>
+  </si>
+  <si>
+    <t>Nikolaus</t>
+  </si>
+  <si>
+    <t>Keeley</t>
+  </si>
+  <si>
+    <t>28/05/2014</t>
+  </si>
+  <si>
+    <t>Nitzsche</t>
+  </si>
+  <si>
+    <t>Carlo</t>
+  </si>
+  <si>
+    <t>30/12/2012</t>
+  </si>
+  <si>
+    <t>Oberbrunner</t>
+  </si>
+  <si>
+    <t>Odie</t>
+  </si>
+  <si>
+    <t>Pollich</t>
+  </si>
+  <si>
+    <t>Dario</t>
+  </si>
+  <si>
+    <t>02/10/2013</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Asa</t>
+  </si>
+  <si>
+    <t>Purdy</t>
+  </si>
+  <si>
+    <t>Coleman</t>
+  </si>
+  <si>
+    <t>14/12/2011</t>
+  </si>
+  <si>
+    <t>U13</t>
+  </si>
+  <si>
+    <t>Quigley</t>
+  </si>
+  <si>
+    <t>Chyna</t>
+  </si>
+  <si>
+    <t>19/11/2013</t>
+  </si>
+  <si>
+    <t>Reinger</t>
+  </si>
+  <si>
+    <t>Alessandra</t>
+  </si>
+  <si>
+    <t>26/05/2013</t>
+  </si>
+  <si>
+    <t>Juliana</t>
+  </si>
+  <si>
+    <t>20/11/2014</t>
+  </si>
+  <si>
+    <t>Renner</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>01/02/2012</t>
+  </si>
+  <si>
+    <t>Shields</t>
+  </si>
+  <si>
+    <t>Brandt</t>
+  </si>
+  <si>
+    <t>09/10/2013</t>
+  </si>
+  <si>
+    <t>Stanton</t>
+  </si>
+  <si>
+    <t>Terrence</t>
+  </si>
+  <si>
+    <t>18/08/2014</t>
+  </si>
+  <si>
+    <t>Strosin</t>
+  </si>
+  <si>
+    <t>Aurelia</t>
+  </si>
+  <si>
+    <t>09/07/2013</t>
+  </si>
+  <si>
+    <t>Torphy</t>
+  </si>
+  <si>
+    <t>Felicita</t>
+  </si>
+  <si>
+    <t>02/06/2012</t>
+  </si>
+  <si>
     <t>Wolf</t>
   </si>
   <si>
@@ -44,7 +478,133 @@
     <t>30/09/2013</t>
   </si>
   <si>
-    <t>U11</t>
+    <t>Numéro du test</t>
+  </si>
+  <si>
+    <t>VMA (km/h)</t>
+  </si>
+  <si>
+    <t>Cooper (12 min en mètres)</t>
+  </si>
+  <si>
+    <t>Demi-Cooper (6 min en mètres)</t>
+  </si>
+  <si>
+    <t>Jongles pied gauche</t>
+  </si>
+  <si>
+    <t>Jongles pied droit</t>
+  </si>
+  <si>
+    <t>Jongles tête</t>
+  </si>
+  <si>
+    <t>Date tests</t>
+  </si>
+  <si>
+    <t>Conduite de balle (secondes)</t>
+  </si>
+  <si>
+    <t>Vitesse (secondes)</t>
+  </si>
+  <si>
+    <t>n°1</t>
+  </si>
+  <si>
+    <t>10 km/h</t>
+  </si>
+  <si>
+    <t>300 mètres</t>
+  </si>
+  <si>
+    <t>50 mètres</t>
+  </si>
+  <si>
+    <t>2023-11-23 08:34:49</t>
+  </si>
+  <si>
+    <t>1.111 secondes</t>
+  </si>
+  <si>
+    <t>221111111.111 secondes</t>
+  </si>
+  <si>
+    <t>n°2</t>
+  </si>
+  <si>
+    <t>15 km/h</t>
+  </si>
+  <si>
+    <t>100 mètres</t>
+  </si>
+  <si>
+    <t>2023-11-23 08:35:03</t>
+  </si>
+  <si>
+    <t>2.211 secondes</t>
+  </si>
+  <si>
+    <t>n°3</t>
+  </si>
+  <si>
+    <t>18 km/h</t>
+  </si>
+  <si>
+    <t>120 mètres</t>
+  </si>
+  <si>
+    <t>64 mètres</t>
+  </si>
+  <si>
+    <t>2023-11-23 08:43:41</t>
+  </si>
+  <si>
+    <t>8.141 secondes</t>
+  </si>
+  <si>
+    <t>2.011 secondes</t>
+  </si>
+  <si>
+    <t>n°4</t>
+  </si>
+  <si>
+    <t>20 km/h</t>
+  </si>
+  <si>
+    <t>2023-11-23 10:30:34</t>
+  </si>
+  <si>
+    <t>5 km/h</t>
+  </si>
+  <si>
+    <t>53 mètres</t>
+  </si>
+  <si>
+    <t>42 mètres</t>
+  </si>
+  <si>
+    <t>2023-11-23 10:03:29</t>
+  </si>
+  <si>
+    <t>1.235 secondes</t>
+  </si>
+  <si>
+    <t>1.765 secondes</t>
+  </si>
+  <si>
+    <t>1 km/h</t>
+  </si>
+  <si>
+    <t>8 mètres</t>
+  </si>
+  <si>
+    <t>7 mètres</t>
+  </si>
+  <si>
+    <t>2023-11-23 10:03:40</t>
+  </si>
+  <si>
+    <t>2 secondes</t>
   </si>
 </sst>
 </file>
@@ -52,9 +612,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
@@ -83,8 +652,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,10 +954,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -401,43 +971,1361 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>826.21</v>
+      </c>
+      <c r="F2">
+        <v>826.21</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>826.21</v>
+      </c>
+      <c r="F3">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>826.21</v>
+      </c>
+      <c r="F4">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>826.21</v>
+      </c>
+      <c r="F5">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>826.21</v>
+      </c>
+      <c r="F6">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>826.21</v>
+      </c>
+      <c r="F7">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>826.21</v>
+      </c>
+      <c r="F8">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>826.21</v>
+      </c>
+      <c r="F9">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>826.21</v>
+      </c>
+      <c r="F10">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>826.21</v>
+      </c>
+      <c r="F11">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>826.21</v>
+      </c>
+      <c r="F12">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>826.21</v>
+      </c>
+      <c r="F13">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>826.21</v>
+      </c>
+      <c r="F14">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>826.21</v>
+      </c>
+      <c r="F15">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>826.21</v>
+      </c>
+      <c r="F16">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>826.21</v>
+      </c>
+      <c r="F17">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>826.21</v>
+      </c>
+      <c r="F18">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>826.21</v>
+      </c>
+      <c r="F19">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>826.21</v>
+      </c>
+      <c r="F20">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>826.21</v>
+      </c>
+      <c r="F21">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22">
+        <v>826.21</v>
+      </c>
+      <c r="F22">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <v>826.21</v>
+      </c>
+      <c r="F23">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24">
+        <v>826.21</v>
+      </c>
+      <c r="F24">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <v>826.21</v>
+      </c>
+      <c r="F25">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>826.21</v>
+      </c>
+      <c r="F26">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <v>826.21</v>
+      </c>
+      <c r="F27">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28">
+        <v>826.21</v>
+      </c>
+      <c r="F28">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29">
+        <v>826.21</v>
+      </c>
+      <c r="F29">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <v>826.21</v>
+      </c>
+      <c r="F30">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31">
+        <v>826.21</v>
+      </c>
+      <c r="F31">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <v>826.21</v>
+      </c>
+      <c r="F32">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33">
+        <v>826.21</v>
+      </c>
+      <c r="F33">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>826.21</v>
+      </c>
+      <c r="F34">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35">
+        <v>826.21</v>
+      </c>
+      <c r="F35">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36">
+        <v>826.21</v>
+      </c>
+      <c r="F36">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37">
+        <v>826.21</v>
+      </c>
+      <c r="F37">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38">
+        <v>826.21</v>
+      </c>
+      <c r="F38">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39">
+        <v>826.21</v>
+      </c>
+      <c r="F39">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40">
+        <v>826.21</v>
+      </c>
+      <c r="F40">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41">
+        <v>826.21</v>
+      </c>
+      <c r="F41">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42">
+        <v>826.21</v>
+      </c>
+      <c r="F42">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43">
+        <v>826.21</v>
+      </c>
+      <c r="F43">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44">
+        <v>826.21</v>
+      </c>
+      <c r="F44">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45">
+        <v>826.21</v>
+      </c>
+      <c r="F45">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46">
+        <v>826.21</v>
+      </c>
+      <c r="F46">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <v>826.21</v>
+      </c>
+      <c r="F47">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48">
+        <v>826.21</v>
+      </c>
+      <c r="F48">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49">
+        <v>826.21</v>
+      </c>
+      <c r="F49">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50">
+        <v>826.21</v>
+      </c>
+      <c r="F50">
+        <v>826.21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51">
+        <v>826.21</v>
+      </c>
+      <c r="F51">
+        <v>826.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="true" style="0"/>
+    <col min="2" max="2" width="30" customWidth="true" style="0"/>
+    <col min="3" max="3" width="30" customWidth="true" style="0"/>
+    <col min="4" max="4" width="30" customWidth="true" style="0"/>
+    <col min="5" max="5" width="30" customWidth="true" style="0"/>
+    <col min="6" max="6" width="30" customWidth="true" style="0"/>
+    <col min="7" max="7" width="30" customWidth="true" style="0"/>
+    <col min="8" max="8" width="30" customWidth="true" style="0"/>
+    <col min="9" max="9" width="30" customWidth="true" style="0"/>
+    <col min="10" max="10" width="30" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2">
+        <v>40</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>36</v>
+      </c>
+      <c r="G4">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>45</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I5" t="s">
+        <v>168</v>
+      </c>
+      <c r="J5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="true" style="0"/>
+    <col min="2" max="2" width="30" customWidth="true" style="0"/>
+    <col min="3" max="3" width="30" customWidth="true" style="0"/>
+    <col min="4" max="4" width="30" customWidth="true" style="0"/>
+    <col min="5" max="5" width="30" customWidth="true" style="0"/>
+    <col min="6" max="6" width="30" customWidth="true" style="0"/>
+    <col min="7" max="7" width="30" customWidth="true" style="0"/>
+    <col min="8" max="8" width="30" customWidth="true" style="0"/>
+    <col min="9" max="9" width="30" customWidth="true" style="0"/>
+    <col min="10" max="10" width="30" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>44</v>
+      </c>
+      <c r="G2">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>826.21</v>
-      </c>
-      <c r="F3">
-        <v>826.21</v>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J3" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
